--- a/old_image/allergyintolerance.xlsx
+++ b/old_image/allergyintolerance.xlsx
@@ -855,7 +855,7 @@
     <t>Text description about the reaction as a whole, including details of the manifestation if required.</t>
   </si>
   <si>
-    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the comment field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
+    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the note field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
   </si>
   <si>
     <t>text</t>
